--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H2">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>1381.324349721421</v>
+        <v>1520.916416252222</v>
       </c>
       <c r="R2">
-        <v>1381.324349721421</v>
+        <v>13688.24774627</v>
       </c>
       <c r="S2">
-        <v>0.005920780245347159</v>
+        <v>0.006282607435825249</v>
       </c>
       <c r="T2">
-        <v>0.005920780245347159</v>
+        <v>0.006282607435825246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H3">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>6697.643166739546</v>
+        <v>6837.686235922028</v>
       </c>
       <c r="R3">
-        <v>6697.643166739546</v>
+        <v>61539.17612329825</v>
       </c>
       <c r="S3">
-        <v>0.02870815486602648</v>
+        <v>0.02824514084442601</v>
       </c>
       <c r="T3">
-        <v>0.02870815486602648</v>
+        <v>0.02824514084442601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H4">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>7413.144514087192</v>
+        <v>7549.860599837018</v>
       </c>
       <c r="R4">
-        <v>7413.144514087192</v>
+        <v>67948.74539853317</v>
       </c>
       <c r="S4">
-        <v>0.03177501330789032</v>
+        <v>0.03118699347125336</v>
       </c>
       <c r="T4">
-        <v>0.03177501330789032</v>
+        <v>0.03118699347125335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H5">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>6382.865524127043</v>
+        <v>6725.58690949127</v>
       </c>
       <c r="R5">
-        <v>6382.865524127043</v>
+        <v>60530.28218542143</v>
       </c>
       <c r="S5">
-        <v>0.0273589212494375</v>
+        <v>0.02778208051168246</v>
       </c>
       <c r="T5">
-        <v>0.0273589212494375</v>
+        <v>0.02778208051168245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H6">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I6">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J6">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>1075.801460177925</v>
+        <v>1204.172624339662</v>
       </c>
       <c r="R6">
-        <v>1075.801460177925</v>
+        <v>10837.55361905696</v>
       </c>
       <c r="S6">
-        <v>0.00461121534172743</v>
+        <v>0.004974200950724012</v>
       </c>
       <c r="T6">
-        <v>0.00461121534172743</v>
+        <v>0.004974200950724011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H7">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>4006.506636747659</v>
+        <v>4357.968553016545</v>
       </c>
       <c r="R7">
-        <v>4006.506636747659</v>
+        <v>39221.71697714891</v>
       </c>
       <c r="S7">
-        <v>0.01717311748865636</v>
+        <v>0.0180019134146382</v>
       </c>
       <c r="T7">
-        <v>0.01717311748865636</v>
+        <v>0.0180019134146382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H8">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>19426.39453472414</v>
+        <v>19592.41235949722</v>
       </c>
       <c r="R8">
-        <v>19426.39453472414</v>
+        <v>176331.711235475</v>
       </c>
       <c r="S8">
-        <v>0.08326749110207984</v>
+        <v>0.08093241302427942</v>
       </c>
       <c r="T8">
-        <v>0.08326749110207984</v>
+        <v>0.08093241302427941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H9">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>21501.69342982316</v>
+        <v>21633.04618331637</v>
       </c>
       <c r="R9">
-        <v>21501.69342982316</v>
+        <v>194697.4156498473</v>
       </c>
       <c r="S9">
-        <v>0.09216285930707176</v>
+        <v>0.08936187114461086</v>
       </c>
       <c r="T9">
-        <v>0.09216285930707176</v>
+        <v>0.08936187114461085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H10">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J10">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>18513.38759722889</v>
+        <v>19271.20776588557</v>
       </c>
       <c r="R10">
-        <v>18513.38759722889</v>
+        <v>173440.8698929702</v>
       </c>
       <c r="S10">
-        <v>0.07935406306435867</v>
+        <v>0.07960557984220459</v>
       </c>
       <c r="T10">
-        <v>0.07935406306435867</v>
+        <v>0.07960557984220458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H11">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J11">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>3120.342945445752</v>
+        <v>3450.384500554557</v>
       </c>
       <c r="R11">
-        <v>3120.342945445752</v>
+        <v>31053.46050499101</v>
       </c>
       <c r="S11">
-        <v>0.01337474784530476</v>
+        <v>0.01425286168786106</v>
       </c>
       <c r="T11">
-        <v>0.01337474784530476</v>
+        <v>0.01425286168786106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H12">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>4687.582353955272</v>
+        <v>5098.200123412555</v>
       </c>
       <c r="R12">
-        <v>4687.582353955272</v>
+        <v>45883.80111071299</v>
       </c>
       <c r="S12">
-        <v>0.02009241711067616</v>
+        <v>0.02105966485890385</v>
       </c>
       <c r="T12">
-        <v>0.02009241711067616</v>
+        <v>0.02105966485890385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H13">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>22728.7341512724</v>
+        <v>22920.3212216844</v>
       </c>
       <c r="R13">
-        <v>22728.7341512724</v>
+        <v>206282.8909951597</v>
       </c>
       <c r="S13">
-        <v>0.09742233255479836</v>
+        <v>0.09467935186977258</v>
       </c>
       <c r="T13">
-        <v>0.09742233255479836</v>
+        <v>0.09467935186977257</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H14">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I14">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J14">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>25156.81810616283</v>
+        <v>25307.57103449762</v>
       </c>
       <c r="R14">
-        <v>25156.81810616283</v>
+        <v>227768.1393104786</v>
       </c>
       <c r="S14">
-        <v>0.1078298458351217</v>
+        <v>0.1045406126628611</v>
       </c>
       <c r="T14">
-        <v>0.1078298458351217</v>
+        <v>0.1045406126628611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H15">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I15">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J15">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>21660.52296450255</v>
+        <v>22544.5577716113</v>
       </c>
       <c r="R15">
-        <v>21660.52296450255</v>
+        <v>202901.0199445017</v>
       </c>
       <c r="S15">
-        <v>0.09284365145519907</v>
+        <v>0.09312714675165179</v>
       </c>
       <c r="T15">
-        <v>0.09284365145519907</v>
+        <v>0.09312714675165178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H16">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I16">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J16">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>3650.777561480317</v>
+        <v>4036.456544499812</v>
       </c>
       <c r="R16">
-        <v>3650.777561480317</v>
+        <v>36328.10890049831</v>
       </c>
       <c r="S16">
-        <v>0.01564835345914855</v>
+        <v>0.0166738103618802</v>
       </c>
       <c r="T16">
-        <v>0.01564835345914855</v>
+        <v>0.01667381036188019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H17">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>3149.784562101449</v>
+        <v>3512.119731845448</v>
       </c>
       <c r="R17">
-        <v>3149.784562101449</v>
+        <v>31609.07758660903</v>
       </c>
       <c r="S17">
-        <v>0.01350094365320555</v>
+        <v>0.01450787782090819</v>
       </c>
       <c r="T17">
-        <v>0.01350094365320555</v>
+        <v>0.01450787782090819</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H18">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I18">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J18">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>15272.396416754</v>
+        <v>15789.67291873012</v>
       </c>
       <c r="R18">
-        <v>15272.396416754</v>
+        <v>142107.0562685711</v>
       </c>
       <c r="S18">
-        <v>0.06546217984332511</v>
+        <v>0.06522404218169174</v>
       </c>
       <c r="T18">
-        <v>0.06546217984332511</v>
+        <v>0.06522404218169173</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H19">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I19">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J19">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>16903.92857536172</v>
+        <v>17434.23511116392</v>
       </c>
       <c r="R19">
-        <v>16903.92857536172</v>
+        <v>156908.1160004753</v>
       </c>
       <c r="S19">
-        <v>0.07245542757423017</v>
+        <v>0.07201740606970979</v>
       </c>
       <c r="T19">
-        <v>0.07245542757423017</v>
+        <v>0.07201740606970979</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H20">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I20">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J20">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>14554.62020481977</v>
+        <v>15530.81171368494</v>
       </c>
       <c r="R20">
-        <v>14554.62020481977</v>
+        <v>139777.3054231644</v>
       </c>
       <c r="S20">
-        <v>0.06238557063343364</v>
+        <v>0.06415473731109861</v>
       </c>
       <c r="T20">
-        <v>0.06238557063343364</v>
+        <v>0.06415473731109859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H21">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I21">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J21">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>2453.111632932561</v>
+        <v>2780.690897474072</v>
       </c>
       <c r="R21">
-        <v>2453.111632932561</v>
+        <v>25026.21807726665</v>
       </c>
       <c r="S21">
-        <v>0.01051478959219651</v>
+        <v>0.01148648875278169</v>
       </c>
       <c r="T21">
-        <v>0.01051478959219651</v>
+        <v>0.01148648875278169</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H22">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I22">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J22">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>816.3492140240897</v>
+        <v>956.114687877376</v>
       </c>
       <c r="R22">
-        <v>816.3492140240897</v>
+        <v>8605.032190896383</v>
       </c>
       <c r="S22">
-        <v>0.003499123359892476</v>
+        <v>0.003949522263926948</v>
       </c>
       <c r="T22">
-        <v>0.003499123359892476</v>
+        <v>0.003949522263926947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H23">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I23">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J23">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>3958.241767101495</v>
+        <v>4298.469114674773</v>
       </c>
       <c r="R23">
-        <v>3958.241767101495</v>
+        <v>38686.22203207295</v>
       </c>
       <c r="S23">
-        <v>0.01696623943948356</v>
+        <v>0.01775613290378372</v>
       </c>
       <c r="T23">
-        <v>0.01696623943948356</v>
+        <v>0.01775613290378372</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H24">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I24">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J24">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>4381.096082714064</v>
+        <v>4746.173118913707</v>
       </c>
       <c r="R24">
-        <v>4381.096082714064</v>
+        <v>42715.55807022336</v>
       </c>
       <c r="S24">
-        <v>0.01877872285733079</v>
+        <v>0.0196055103422963</v>
       </c>
       <c r="T24">
-        <v>0.01877872285733079</v>
+        <v>0.01960551034229629</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H25">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I25">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J25">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>3772.211251393222</v>
+        <v>4227.998567209899</v>
       </c>
       <c r="R25">
-        <v>3772.211251393222</v>
+        <v>38051.98710488909</v>
       </c>
       <c r="S25">
-        <v>0.01616885553565284</v>
+        <v>0.0174650328927782</v>
       </c>
       <c r="T25">
-        <v>0.01616885553565284</v>
+        <v>0.0174650328927782</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H26">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I26">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J26">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>635.7881670871392</v>
+        <v>756.9956643035307</v>
       </c>
       <c r="R26">
-        <v>635.7881670871392</v>
+        <v>6812.960978731777</v>
       </c>
       <c r="S26">
-        <v>0.002725183278405386</v>
+        <v>0.003127000628450141</v>
       </c>
       <c r="T26">
-        <v>0.002725183278405386</v>
+        <v>0.00312700062845014</v>
       </c>
     </row>
   </sheetData>
